--- a/Workspace/3 - Evolutions monitoring.xlsx
+++ b/Workspace/3 - Evolutions monitoring.xlsx
@@ -419,7 +419,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
